--- a/OpenEMR Windows 10 v3.suite/Resources/WebFormData.xlsx
+++ b/OpenEMR Windows 10 v3.suite/Resources/WebFormData.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="WebFormData" sheetId="1" r:id="rId1"/>
+    <sheet name="PatientList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -482,9 +482,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
